--- a/Requirment Analysis.xlsx
+++ b/Requirment Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Folder\sqa assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASIF\Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387E045-8751-4BCD-9BDC-D51BED93EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A817F5-B211-4ECB-81C5-9BA37ECF6A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{50D44964-B704-4B7A-A362-FB82C1D2ED42}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +148,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="-0.24994659260841701"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.24994659260841701"/>
+        <bgColor theme="4" tint="-0.24994659260841701"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,14 +171,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,139 +503,140 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="111.21875" customWidth="1"/>
-    <col min="3" max="3" width="72.44140625" customWidth="1"/>
+    <col min="2" max="2" width="108" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>